--- a/2019_dkp/2020_02_04_dkp.xlsx
+++ b/2019_dkp/2020_02_04_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A498E88-C701-41A7-95A1-5B58651626C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE7B4A4-52E6-4F30-9EB7-0C575227A06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="990" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="2085" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -691,10 +691,10 @@
   <dimension ref="B1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P68" sqref="P4:P68"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -822,7 +822,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="5"/>
       <c r="P5" s="9">
-        <f t="shared" ref="P5:P66" si="2">IF(D5+H5+I5+M5 &gt; 0, D5+H5+I5+M5, "")</f>
+        <f t="shared" ref="P5:P68" si="2">IF(D5+H5+I5+M5 &gt; 0, D5+H5+I5+M5, "")</f>
         <v>100</v>
       </c>
     </row>
@@ -1036,12 +1036,10 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
+      <c r="G12" s="7"/>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="5"/>
@@ -1053,7 +1051,10 @@
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="9"/>
+      <c r="P12" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
@@ -1898,7 +1899,10 @@
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="5"/>
-      <c r="P38" s="9"/>
+      <c r="P38" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
@@ -2172,10 +2176,12 @@
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>1</v>
+      </c>
       <c r="H47" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="5"/>
@@ -2189,7 +2195,7 @@
       <c r="O47" s="5"/>
       <c r="P47" s="9">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.2">
@@ -2834,7 +2840,7 @@
       <c r="N67" s="8"/>
       <c r="O67" s="5"/>
       <c r="P67" s="9">
-        <f t="shared" ref="P67" si="5">IF(D67+H67+I67+M67 &gt; 0, D67+H67+I67+M67, "")</f>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
     </row>
@@ -2860,13 +2866,13 @@
       <c r="K68" s="5"/>
       <c r="L68" s="7"/>
       <c r="M68" s="7">
-        <f t="shared" ref="M68" si="6">IF(L68&lt;&gt;"",M$2, 0)</f>
+        <f t="shared" ref="M68" si="5">IF(L68&lt;&gt;"",M$2, 0)</f>
         <v>0</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="5"/>
       <c r="P68" s="9">
-        <f t="shared" ref="P68" si="7">IF(D68+H68+I68+M68 &gt; 0, D68+H68+I68+M68, "")</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>

--- a/2019_dkp/2020_02_04_dkp.xlsx
+++ b/2019_dkp/2020_02_04_dkp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE7B4A4-52E6-4F30-9EB7-0C575227A06E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89B3BB-7C7F-4568-B7DD-C4A9666E1DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11250" yWindow="2085" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,10 +691,10 @@
   <dimension ref="B1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="9">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6"/>
@@ -891,7 +891,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="9">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.2">

--- a/2019_dkp/2020_02_04_dkp.xlsx
+++ b/2019_dkp/2020_02_04_dkp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_dkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B89B3BB-7C7F-4568-B7DD-C4A9666E1DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC428EB-1F6C-4223-A4A3-01C3FE0C259B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="2085" windowWidth="16200" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dkp" sheetId="1" r:id="rId1"/>
@@ -691,10 +691,10 @@
   <dimension ref="B1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1295,9 +1295,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I20" s="8">
-        <v>-93</v>
-      </c>
+      <c r="I20" s="8"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="7"/>
@@ -1309,7 +1307,7 @@
       <c r="O20" s="5"/>
       <c r="P20" s="9">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.2">
@@ -2081,7 +2079,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I44" s="8"/>
+      <c r="I44" s="8">
+        <v>-93</v>
+      </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="7"/>
@@ -2093,7 +2093,7 @@
       <c r="O44" s="5"/>
       <c r="P44" s="9">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.2">
